--- a/medicine/Handicap/Hétérotopie_(médecine)/Hétérotopie_(médecine).xlsx
+++ b/medicine/Handicap/Hétérotopie_(médecine)/Hétérotopie_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotopie_(m%C3%A9decine)</t>
+          <t>Hétérotopie_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hétérotopie, parfois appelée choristome, est un terme médical désignant une anomalie congénitale de la situation d'un organe ou d'un tissu qui se retrouve à un endroit du corps où il ne devrait pas se trouver normalement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rotopie_(m%C3%A9decine)</t>
+          <t>Hétérotopie_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Quelques exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérotopie neuronale est une maladie rare caractérisée par la présence de neurones en dehors du cortex et dispersés dans la substance blanche.
 L'hétérotopie de la muqueuse gastrique correspond à la présence d'îlots de muqueuse gastrique au sein de la muqueuse œsophagienne.
